--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H2">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I2">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J2">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N2">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O2">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P2">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q2">
-        <v>0.2268754437531111</v>
+        <v>0.04981842930333334</v>
       </c>
       <c r="R2">
-        <v>2.041878993778</v>
+        <v>0.44836586373</v>
       </c>
       <c r="S2">
-        <v>0.001955461129119218</v>
+        <v>0.0005161995507752223</v>
       </c>
       <c r="T2">
-        <v>0.001955461129119218</v>
+        <v>0.0005161995507752223</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H3">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I3">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J3">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>39.485284</v>
       </c>
       <c r="O3">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P3">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q3">
-        <v>2.166219714539111</v>
+        <v>0.3611148584488889</v>
       </c>
       <c r="R3">
-        <v>19.495977430852</v>
+        <v>3.25003372604</v>
       </c>
       <c r="S3">
-        <v>0.01867085471587039</v>
+        <v>0.003741734340410085</v>
       </c>
       <c r="T3">
-        <v>0.01867085471587039</v>
+        <v>0.003741734340410086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H4">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I4">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J4">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N4">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O4">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P4">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q4">
-        <v>1.514779562001333</v>
+        <v>0.2664487007422222</v>
       </c>
       <c r="R4">
-        <v>13.633016058012</v>
+        <v>2.39803830668</v>
       </c>
       <c r="S4">
-        <v>0.01305602979184134</v>
+        <v>0.002760839744471308</v>
       </c>
       <c r="T4">
-        <v>0.01305602979184134</v>
+        <v>0.002760839744471308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H5">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I5">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J5">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N5">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O5">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P5">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q5">
-        <v>0.1364558832606667</v>
+        <v>0.03353833440333333</v>
       </c>
       <c r="R5">
-        <v>1.228102949346</v>
+        <v>0.30184500963</v>
       </c>
       <c r="S5">
-        <v>0.001176126297062965</v>
+        <v>0.0003475114208707394</v>
       </c>
       <c r="T5">
-        <v>0.001176126297062964</v>
+        <v>0.0003475114208707395</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H6">
         <v>10.104987</v>
       </c>
       <c r="I6">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J6">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N6">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O6">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P6">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q6">
-        <v>4.643158441051334</v>
+        <v>6.116080433369</v>
       </c>
       <c r="R6">
-        <v>41.788425969462</v>
+        <v>55.044723900321</v>
       </c>
       <c r="S6">
-        <v>0.0400198262871416</v>
+        <v>0.06337249119170771</v>
       </c>
       <c r="T6">
-        <v>0.0400198262871416</v>
+        <v>0.06337249119170771</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H7">
         <v>10.104987</v>
       </c>
       <c r="I7">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J7">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>39.485284</v>
       </c>
       <c r="O7">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P7">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q7">
-        <v>44.33314239014534</v>
+        <v>44.33314239014533</v>
       </c>
       <c r="R7">
-        <v>398.9982815113081</v>
+        <v>398.998281511308</v>
       </c>
       <c r="S7">
-        <v>0.382111590578202</v>
+        <v>0.4593631012914285</v>
       </c>
       <c r="T7">
-        <v>0.382111590578202</v>
+        <v>0.4593631012914286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H8">
         <v>10.104987</v>
       </c>
       <c r="I8">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J8">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N8">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O8">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P8">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q8">
-        <v>31.00098183077201</v>
+        <v>32.71122168833733</v>
       </c>
       <c r="R8">
-        <v>279.008836476948</v>
+        <v>294.400995195036</v>
       </c>
       <c r="S8">
-        <v>0.2672004247430789</v>
+        <v>0.3389411945931952</v>
       </c>
       <c r="T8">
-        <v>0.2672004247430789</v>
+        <v>0.3389411945931952</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H9">
         <v>10.104987</v>
       </c>
       <c r="I9">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J9">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N9">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O9">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P9">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q9">
-        <v>2.792661363926</v>
+        <v>4.117415054638999</v>
       </c>
       <c r="R9">
-        <v>25.133952275334</v>
+        <v>37.056735491751</v>
       </c>
       <c r="S9">
-        <v>0.0240702151524738</v>
+        <v>0.04266308334649922</v>
       </c>
       <c r="T9">
-        <v>0.0240702151524738</v>
+        <v>0.04266308334649922</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H10">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I10">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J10">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N10">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O10">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P10">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q10">
-        <v>1.638439698987778</v>
+        <v>0.5971341887283333</v>
       </c>
       <c r="R10">
-        <v>14.74595729089</v>
+        <v>5.374207698555</v>
       </c>
       <c r="S10">
-        <v>0.01412186832905074</v>
+        <v>0.006187276561797749</v>
       </c>
       <c r="T10">
-        <v>0.01412186832905074</v>
+        <v>0.006187276561797749</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H11">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I11">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J11">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>39.485284</v>
       </c>
       <c r="O11">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P11">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q11">
-        <v>15.64391596691778</v>
+        <v>4.328398768348888</v>
       </c>
       <c r="R11">
-        <v>140.79524370226</v>
+        <v>38.95558891514</v>
       </c>
       <c r="S11">
-        <v>0.1348364065958801</v>
+        <v>0.04484921606406857</v>
       </c>
       <c r="T11">
-        <v>0.1348364065958801</v>
+        <v>0.04484921606406857</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H12">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I12">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J12">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N12">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O12">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P12">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q12">
-        <v>10.93937240867333</v>
+        <v>3.193710259042223</v>
       </c>
       <c r="R12">
-        <v>98.45435167806001</v>
+        <v>28.74339233138</v>
       </c>
       <c r="S12">
-        <v>0.09428749611790739</v>
+        <v>0.03309200679503373</v>
       </c>
       <c r="T12">
-        <v>0.09428749611790738</v>
+        <v>0.03309200679503373</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H13">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I13">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J13">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N13">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O13">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P13">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q13">
-        <v>0.9854514556366667</v>
+        <v>0.4019975415783333</v>
       </c>
       <c r="R13">
-        <v>8.869063100729999</v>
+        <v>3.617977874205</v>
       </c>
       <c r="S13">
-        <v>0.008493700262371515</v>
+        <v>0.004165345099741933</v>
       </c>
       <c r="T13">
-        <v>0.008493700262371513</v>
+        <v>0.004165345099741933</v>
       </c>
     </row>
   </sheetData>
